--- a/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D624B3E5-B309-41AD-B6BA-4DB196C28A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1E3B6B-FE03-464C-87F4-9B28B9B2C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EB9A75AA-9FC2-4377-8F3B-27244DB87896}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C15FDE6F-C76F-40E4-ACEA-488989F05563}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,84 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
     <t>68,51%</t>
   </si>
   <si>
@@ -98,90 +176,156 @@
     <t>75,07%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
     <t>53,12%</t>
   </si>
   <si>
@@ -209,148 +353,79 @@
     <t>63,18%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>60,21%</t>
@@ -380,84 +455,60 @@
     <t>65,6%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
     <t>81,97%</t>
   </si>
   <si>
@@ -485,55 +536,145 @@
     <t>88,44%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>85,08%</t>
@@ -563,145 +704,64 @@
     <t>89,2%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>86,22%</t>
@@ -731,69 +791,51 @@
     <t>87,52%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
     <t>83,79%</t>
   </si>
   <si>
@@ -821,46 +863,103 @@
     <t>88,83%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>86,76%</t>
@@ -890,103 +989,55 @@
     <t>94,09%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>86,21%</t>
@@ -1016,60 +1067,63 @@
     <t>90,09%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
     <t>60,55%</t>
   </si>
   <si>
@@ -1097,58 +1151,175 @@
     <t>67,82%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>71,4%</t>
@@ -1178,175 +1349,76 @@
     <t>78,56%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>65,87%</t>
@@ -1374,78 +1446,6 @@
   </si>
   <si>
     <t>70,37%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21095519-E6E2-4531-B253-9FFE69B9284D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE0949-C4B6-460F-A61D-2C5E32090FFE}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1952,13 +1952,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>31839</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1970,85 +1970,85 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>31897</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>98</v>
-      </c>
-      <c r="N4" s="7">
-        <v>63736</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>13248</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>517</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>517</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="7">
-        <v>10875</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>36</v>
-      </c>
-      <c r="N5" s="7">
-        <v>24123</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>1387</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -2078,13 +2078,13 @@
         <v>4632</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2093,79 +2093,79 @@
         <v>6019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>13248</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>517</v>
+        <v>10875</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>517</v>
+        <v>24123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>31839</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>37</v>
@@ -2174,31 +2174,31 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>31897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="7">
+        <v>98</v>
+      </c>
+      <c r="N8" s="7">
+        <v>63736</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>44</v>
@@ -2260,103 +2260,103 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>29245</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25447</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>54693</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>23200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>18580</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>41780</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,151 +2365,151 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>2610</v>
+        <v>700</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>654</v>
+        <v>527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>3263</v>
+        <v>1227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>16118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>12152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>28271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>25571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7">
+        <v>31</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20024</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="7">
+        <v>70</v>
+      </c>
+      <c r="N14" s="7">
+        <v>45595</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,10 +2518,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -2533,10 +2533,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -2548,10 +2548,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N15" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -2565,106 +2565,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7">
-        <v>25571</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="7">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20024</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="7">
-        <v>70</v>
-      </c>
-      <c r="N16" s="7">
-        <v>45595</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>16118</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>12152</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>28271</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,148 +2673,148 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>700</v>
+        <v>2610</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>527</v>
+        <v>654</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>1227</v>
+        <v>3263</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>23200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>18580</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>41780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>29245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="7">
         <v>37</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>25447</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="7">
+        <v>81</v>
+      </c>
+      <c r="N20" s="7">
+        <v>54693</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>103</v>
@@ -2826,10 +2826,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D21" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -2841,10 +2841,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -2856,10 +2856,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N21" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -2876,103 +2876,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>86656</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H22" s="7">
-        <v>118</v>
-      </c>
-      <c r="I22" s="7">
-        <v>77368</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="7">
-        <v>249</v>
-      </c>
-      <c r="N22" s="7">
-        <v>164024</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>52566</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>41607</v>
+        <v>517</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>94173</v>
+        <v>517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>4697</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3002,13 +3002,13 @@
         <v>5813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -3017,112 +3017,112 @@
         <v>10509</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>52566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>517</v>
+        <v>41607</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="N25" s="7">
-        <v>517</v>
+        <v>94173</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>86656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>131</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>77368</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="7">
+        <v>249</v>
+      </c>
+      <c r="N26" s="7">
+        <v>164024</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>137</v>
@@ -3195,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712F6E14-1277-44D1-80B4-40C25B99BA80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF9D9A-53C0-4AFC-912F-14B645ED831B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3310,103 +3310,103 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>52184</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="7">
-        <v>76</v>
-      </c>
-      <c r="I4" s="7">
-        <v>50360</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="7">
-        <v>151</v>
-      </c>
-      <c r="N4" s="7">
-        <v>102545</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>11479</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>7042</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>18520</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3436,13 +3436,13 @@
         <v>2181</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3451,112 +3451,112 @@
         <v>2181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>11479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>18520</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>52184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>50360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>102545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>164</v>
@@ -3618,103 +3618,103 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>31418</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>34188</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M10" s="7">
-        <v>95</v>
-      </c>
-      <c r="N10" s="7">
-        <v>65606</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>7527</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>11332</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,151 +3723,151 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>637</v>
+        <v>896</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1244</v>
+        <v>896</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>1097</v>
+        <v>4856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>8188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>1097</v>
+        <v>13045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>53127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>36683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>89810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,10 +3876,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>36927</v>
+        <v>57983</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -3891,10 +3891,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -3906,10 +3906,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="N15" s="7">
-        <v>79279</v>
+        <v>103750</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -3923,106 +3923,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>53127</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>36683</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>89810</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>4856</v>
+        <v>1097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>8188</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>13045</v>
+        <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,148 +4031,148 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>896</v>
+        <v>637</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>896</v>
+        <v>1244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>3805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>7527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>11332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>31418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>214</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>34188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M20" s="7">
+        <v>95</v>
+      </c>
+      <c r="N20" s="7">
+        <v>65606</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>220</v>
@@ -4184,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>57983</v>
+        <v>36927</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -4199,10 +4199,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -4214,10 +4214,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N21" s="7">
-        <v>103750</v>
+        <v>79279</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -4234,103 +4234,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>136730</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="7">
-        <v>176</v>
-      </c>
-      <c r="I22" s="7">
-        <v>121231</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" s="7">
-        <v>369</v>
-      </c>
-      <c r="N22" s="7">
-        <v>257959</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>20140</v>
+        <v>1097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>22757</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>42896</v>
+        <v>1097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4345,13 @@
         <v>607</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -4360,13 +4360,13 @@
         <v>3714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -4375,112 +4375,112 @@
         <v>4321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>1097</v>
+        <v>20140</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N25" s="7">
-        <v>1097</v>
+        <v>42896</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>136730</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>121231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>257959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>249</v>
@@ -4553,7 +4553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B0F25-F79D-475B-842F-76B96A8BA19B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E11A3F-2DED-4B37-9451-57670E03A685}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4668,103 +4668,103 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>33648</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="7">
-        <v>60</v>
-      </c>
-      <c r="I4" s="7">
-        <v>37665</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="M4" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>71313</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>6508</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>7555</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>14063</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4794,13 +4794,13 @@
         <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4809,115 +4809,115 @@
         <v>536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6508</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>14063</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>33648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>37665</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="7">
+        <v>111</v>
+      </c>
+      <c r="N8" s="7">
+        <v>71313</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,103 +4976,103 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>35828</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H10" s="7">
-        <v>48</v>
-      </c>
-      <c r="I10" s="7">
-        <v>34174</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="M10" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>70002</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5469</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2898</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>8367</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,19 +5081,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5102,127 +5102,127 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>8640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>36801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="7">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7">
+        <v>39632</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M14" s="7">
+        <v>112</v>
+      </c>
+      <c r="N14" s="7">
+        <v>76434</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>294</v>
@@ -5234,10 +5234,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -5249,10 +5249,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -5264,10 +5264,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N15" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -5281,106 +5281,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>36801</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="7">
-        <v>59</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39632</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M16" s="7">
-        <v>112</v>
-      </c>
-      <c r="N16" s="7">
-        <v>76434</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>3639</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>8640</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,19 +5389,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>311</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5410,130 +5410,130 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5469</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>8367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>35828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>34174</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M20" s="7">
+        <v>97</v>
+      </c>
+      <c r="N20" s="7">
+        <v>70002</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,10 +5542,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -5557,10 +5557,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I21" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -5572,10 +5572,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N21" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -5592,103 +5592,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>106278</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H22" s="7">
-        <v>167</v>
-      </c>
-      <c r="I22" s="7">
-        <v>111472</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="M22" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>217750</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>15616</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>15454</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>31069</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5703,13 @@
         <v>1382</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5718,13 +5718,13 @@
         <v>536</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -5733,115 +5733,115 @@
         <v>1918</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>15616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>15454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>31069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>106278</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H26" s="7">
+        <v>167</v>
+      </c>
+      <c r="I26" s="7">
+        <v>111472</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M26" s="7">
+        <v>320</v>
+      </c>
+      <c r="N26" s="7">
+        <v>217750</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,7 +5911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB1BCA4-DC6B-437F-93BD-6B69803D3B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6054DAD8-B4BA-4AF8-B998-A956F068D382}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6026,103 +6026,103 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>21720</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15020</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M4" s="7">
-        <v>69</v>
-      </c>
-      <c r="N4" s="7">
-        <v>36740</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>12029</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>8116</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>20145</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6137,13 @@
         <v>2120</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6152,13 +6152,13 @@
         <v>3062</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -6167,112 +6167,112 @@
         <v>5183</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>12029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>8116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>20145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>21720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H8" s="7">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7">
+        <v>15020</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8" s="7">
+        <v>69</v>
+      </c>
+      <c r="N8" s="7">
+        <v>36740</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>369</v>
@@ -6334,103 +6334,103 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>75</v>
-      </c>
-      <c r="D10" s="7">
-        <v>60462</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>575</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H10" s="7">
-        <v>65</v>
-      </c>
-      <c r="I10" s="7">
-        <v>52905</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>575</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M10" s="7">
-        <v>140</v>
-      </c>
-      <c r="N10" s="7">
-        <v>113366</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>658</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7">
-        <v>21599</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>1649</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2307</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15199</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36798</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,151 +6439,151 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>1795</v>
+        <v>4805</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>704</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5508</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4723</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6518</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>824</v>
+        <v>15064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="7">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7">
+        <v>16375</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M13" s="7">
+        <v>45</v>
+      </c>
+      <c r="N13" s="7">
+        <v>31439</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>783</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1608</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>31460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>35300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>66760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,10 +6592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D15" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -6607,10 +6607,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I15" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -6622,10 +6622,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -6639,106 +6639,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>31460</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>35300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>66760</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>824</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>783</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7">
-        <v>15064</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="N17" s="7">
+        <v>1608</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16375</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M17" s="7">
-        <v>45</v>
-      </c>
-      <c r="N17" s="7">
-        <v>31439</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,148 +6747,148 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>4805</v>
+        <v>1795</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4723</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6518</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5508</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>658</v>
+        <v>21599</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>420</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="7">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15199</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="7">
+        <v>50</v>
+      </c>
+      <c r="N19" s="7">
+        <v>36798</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1649</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2307</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>60462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H20" s="7">
+        <v>65</v>
+      </c>
+      <c r="I20" s="7">
+        <v>52905</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>575</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>140</v>
+      </c>
+      <c r="N20" s="7">
+        <v>113366</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>575</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>435</v>
@@ -6900,10 +6900,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -6915,10 +6915,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -6930,10 +6930,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N21" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -6950,103 +6950,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="7">
-        <v>160</v>
-      </c>
-      <c r="D22" s="7">
-        <v>113642</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>575</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>575</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H22" s="7">
-        <v>144</v>
-      </c>
-      <c r="I22" s="7">
-        <v>103225</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="M22" s="7">
-        <v>304</v>
-      </c>
-      <c r="N22" s="7">
-        <v>216866</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>442</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="7">
-        <v>75</v>
-      </c>
       <c r="D23" s="7">
-        <v>48693</v>
+        <v>1483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>445</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>39690</v>
+        <v>2433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>88382</v>
+        <v>3915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7061,13 @@
         <v>8720</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -7076,13 +7076,13 @@
         <v>8489</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -7091,115 +7091,115 @@
         <v>17209</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>1483</v>
+        <v>48693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>217</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I25" s="7">
-        <v>2433</v>
+        <v>39690</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N25" s="7">
-        <v>3915</v>
+        <v>88382</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>113642</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="I26" s="7">
-        <v>575</v>
+        <v>103225</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M26" s="7">
+        <v>304</v>
+      </c>
+      <c r="N26" s="7">
+        <v>216866</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>575</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1E3B6B-FE03-464C-87F4-9B28B9B2C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7F6D7E-49C6-484A-A14C-FA1733DC6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C15FDE6F-C76F-40E4-ACEA-488989F05563}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC4985B-B178-4C39-A06C-BC4585DBED27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="558">
   <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,1375 +77,1642 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1723,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1552,39 +1819,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1636,7 +1903,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1747,13 +2014,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1762,6 +2022,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1826,19 +2093,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE0949-C4B6-460F-A61D-2C5E32090FFE}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CAD823-5F09-4048-88CF-EA83FCF73170}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2072,10 +2359,10 @@
         <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>4632</v>
+        <v>2310</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -2087,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>6019</v>
+        <v>3696</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>24</v>
@@ -2108,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>13248</v>
+        <v>7147</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -2123,10 +2410,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>10875</v>
+        <v>4862</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -2138,10 +2425,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>24123</v>
+        <v>12009</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -2159,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>31839</v>
+        <v>21121</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -2174,10 +2461,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>31897</v>
+        <v>21347</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -2189,10 +2476,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>63736</v>
+        <v>42467</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -2210,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
@@ -2225,10 +2512,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -2240,10 +2527,10 @@
         <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -2380,34 +2667,34 @@
         <v>51</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>527</v>
+        <v>2323</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>1227</v>
+        <v>3023</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,49 +2703,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>16118</v>
+        <v>20268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>12152</v>
+        <v>15408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>28271</v>
+        <v>35676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,49 +2754,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>25571</v>
+        <v>29991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>20024</v>
+        <v>25490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7">
-        <v>45595</v>
+        <v>55482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D15" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -2533,10 +2820,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -2548,10 +2835,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N15" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -2565,7 +2852,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2583,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2598,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2613,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2649,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2664,7 +2951,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,49 +2960,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1337</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1181</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
-        <v>2610</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>654</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="7">
-        <v>5</v>
-      </c>
       <c r="N18" s="7">
-        <v>3263</v>
+        <v>2517</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,49 +3011,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>23200</v>
+        <v>8677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>18580</v>
+        <v>7566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>41780</v>
+        <v>16243</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,49 +3062,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7">
-        <v>29245</v>
+        <v>13853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
-        <v>25447</v>
+        <v>13760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="N20" s="7">
-        <v>54693</v>
+        <v>27613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,10 +3113,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D21" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -2841,10 +3128,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -2856,10 +3143,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N21" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -2873,7 +3160,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2891,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2906,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2921,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,37 +3229,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>517</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +3268,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>4697</v>
+        <v>1273</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1273</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5813</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="7">
-        <v>17</v>
-      </c>
-      <c r="N24" s="7">
-        <v>10509</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,49 +3319,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>52566</v>
+        <v>16474</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="7">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13771</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="7">
+        <v>44</v>
+      </c>
+      <c r="N25" s="7">
+        <v>30246</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="7">
-        <v>61</v>
-      </c>
-      <c r="I25" s="7">
-        <v>41607</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25" s="7">
-        <v>138</v>
-      </c>
-      <c r="N25" s="7">
-        <v>94173</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,49 +3370,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7">
-        <v>86656</v>
+        <v>21691</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="7">
+        <v>25</v>
+      </c>
+      <c r="I26" s="7">
+        <v>16772</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="7">
+        <v>58</v>
+      </c>
+      <c r="N26" s="7">
+        <v>38462</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="7">
-        <v>118</v>
-      </c>
-      <c r="I26" s="7">
-        <v>77368</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" s="7">
-        <v>249</v>
-      </c>
-      <c r="N26" s="7">
-        <v>164024</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,55 +3421,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>59</v>
+      </c>
+      <c r="D27" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
+        <v>45</v>
+      </c>
+      <c r="I27" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="7">
+        <v>104</v>
+      </c>
+      <c r="N27" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>517</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>517</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4697</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5813</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" s="7">
+        <v>17</v>
+      </c>
+      <c r="N30" s="7">
+        <v>10509</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>77</v>
+      </c>
+      <c r="D31" s="7">
+        <v>52566</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="7">
+        <v>61</v>
+      </c>
+      <c r="I31" s="7">
+        <v>41607</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M31" s="7">
+        <v>138</v>
+      </c>
+      <c r="N31" s="7">
+        <v>94173</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>131</v>
+      </c>
+      <c r="D32" s="7">
+        <v>86656</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="7">
+        <v>118</v>
+      </c>
+      <c r="I32" s="7">
+        <v>77368</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="7">
+        <v>249</v>
+      </c>
+      <c r="N32" s="7">
+        <v>164024</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>215</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>143919</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>190</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>125305</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="7">
         <v>405</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>269224</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>45</v>
+      <c r="O33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3195,8 +3796,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF9D9A-53C0-4AFC-912F-14B645ED831B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF6BBD5-0635-484E-840B-453468F81341}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3212,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3325,7 +3926,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3340,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3355,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3391,7 +3992,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3406,7 +4007,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,37 +4028,37 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2181</v>
+        <v>1305</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>2181</v>
+        <v>1305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,49 +4067,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>11479</v>
+        <v>6397</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>7042</v>
+        <v>5858</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>18520</v>
+        <v>12255</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,49 +4118,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>52184</v>
+        <v>32029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>50360</v>
+        <v>29334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>102545</v>
+        <v>61362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,10 +4169,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
@@ -3583,10 +4184,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I9" s="7">
-        <v>59582</v>
+        <v>36497</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -3598,10 +4199,10 @@
         <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="N9" s="7">
-        <v>123246</v>
+        <v>74923</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -3633,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3648,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3663,7 +4264,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3699,7 +4300,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3714,7 +4315,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,37 +4336,37 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>896</v>
+        <v>1771</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>896</v>
+        <v>1771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,49 +4375,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>4856</v>
+        <v>8597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>8188</v>
+        <v>7522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>13045</v>
+        <v>16119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,49 +4426,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>53127</v>
+        <v>58768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>36683</v>
+        <v>44872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="N14" s="7">
-        <v>89810</v>
+        <v>103639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7">
-        <v>57983</v>
+        <v>67365</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -3891,10 +4492,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I15" s="7">
-        <v>45767</v>
+        <v>54165</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -3906,10 +4507,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="N15" s="7">
-        <v>103750</v>
+        <v>121529</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -3923,7 +4524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -3941,7 +4542,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3956,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3971,7 +4572,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4587,13 @@
         <v>1097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4007,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4016,13 +4617,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,49 +4632,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,49 +4683,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>3805</v>
+        <v>1340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>7527</v>
+        <v>3263</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>11332</v>
+        <v>4603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +4734,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7">
-        <v>31418</v>
+        <v>25477</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>34188</v>
+        <v>26607</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>65606</v>
+        <v>52084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +4785,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -4199,10 +4800,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I21" s="7">
-        <v>42352</v>
+        <v>29870</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -4214,10 +4815,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N21" s="7">
-        <v>79279</v>
+        <v>57785</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -4231,7 +4832,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -4249,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4264,7 +4865,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4279,7 +4880,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,19 +4889,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4315,22 +4916,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,43 +4946,43 @@
         <v>607</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>3714</v>
+        <v>637</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>4321</v>
+        <v>1244</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,49 +4991,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>20140</v>
+        <v>3805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H25" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>22757</v>
+        <v>6114</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M25" s="7">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>42896</v>
+        <v>9919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,49 +5042,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>136730</v>
+        <v>20456</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H26" s="7">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I26" s="7">
-        <v>121231</v>
+        <v>20418</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="N26" s="7">
-        <v>257959</v>
+        <v>40874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,55 +5093,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
+        <v>39</v>
+      </c>
+      <c r="I27" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="7">
+        <v>75</v>
+      </c>
+      <c r="N27" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1097</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1097</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>607</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3714</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4321</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7">
+        <v>20140</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="7">
+        <v>32</v>
+      </c>
+      <c r="I31" s="7">
+        <v>22757</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="7">
+        <v>60</v>
+      </c>
+      <c r="N31" s="7">
+        <v>42896</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>193</v>
+      </c>
+      <c r="D32" s="7">
+        <v>136730</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="7">
+        <v>176</v>
+      </c>
+      <c r="I32" s="7">
+        <v>121231</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" s="7">
+        <v>369</v>
+      </c>
+      <c r="N32" s="7">
+        <v>257959</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>223</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>158574</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>213</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>147701</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="7">
         <v>436</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>306274</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>45</v>
+      <c r="O33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4553,8 +5468,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E11A3F-2DED-4B37-9451-57670E03A685}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A243333C-F8D9-43E1-B1D7-2F868AC78A9E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4570,7 +5485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4683,7 +5598,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4698,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4713,7 +5628,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,7 +5649,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4749,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4764,7 +5679,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,7 +5700,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4794,13 +5709,13 @@
         <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4809,13 +5724,13 @@
         <v>536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,49 +5739,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>6508</v>
+        <v>5941</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>7555</v>
+        <v>3839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>14063</v>
+        <v>9780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,49 +5790,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>33648</v>
+        <v>18035</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>37665</v>
+        <v>22658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>71313</v>
+        <v>40693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,10 +5841,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
@@ -4941,10 +5856,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -4956,10 +5871,10 @@
         <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N9" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -4991,7 +5906,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5006,7 +5921,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5021,7 +5936,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,7 +5957,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5057,7 +5972,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5072,7 +5987,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +6002,13 @@
         <v>1382</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5108,7 +6023,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5117,13 +6032,13 @@
         <v>1382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,49 +6047,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3639</v>
+        <v>2586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>5000</v>
+        <v>6153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>8640</v>
+        <v>8739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,49 +6098,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>36801</v>
+        <v>39128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>39632</v>
+        <v>36086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
       </c>
       <c r="N14" s="7">
-        <v>76434</v>
+        <v>75214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,10 +6149,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -5249,10 +6164,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -5264,10 +6179,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N15" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -5281,7 +6196,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -5299,7 +6214,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5314,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5329,7 +6244,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,7 +6265,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5365,7 +6280,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5380,7 +6295,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,7 +6316,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5416,7 +6331,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5431,7 +6346,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,49 +6355,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>5469</v>
+        <v>3737</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>2898</v>
+        <v>4166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>8367</v>
+        <v>7903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,49 +6406,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7">
-        <v>35828</v>
+        <v>29709</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="7">
-        <v>34174</v>
+        <v>31958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N20" s="7">
-        <v>70002</v>
+        <v>61667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,10 +6457,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -5560,7 +6475,7 @@
         <v>52</v>
       </c>
       <c r="I21" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -5572,10 +6487,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N21" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -5589,7 +6504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -5607,7 +6522,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5622,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5637,7 +6552,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +6573,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5673,7 +6588,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5688,7 +6603,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,49 +6612,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1918</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,49 +6663,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>15616</v>
+        <v>3352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>15454</v>
+        <v>1296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>329</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>31069</v>
+        <v>4648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,49 +6714,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>106278</v>
+        <v>19406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="H26" s="7">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="I26" s="7">
-        <v>111472</v>
+        <v>20769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="N26" s="7">
-        <v>217750</v>
+        <v>40175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,55 +6765,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
+        <v>31</v>
+      </c>
+      <c r="I27" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="7">
+        <v>62</v>
+      </c>
+      <c r="N27" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1382</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>536</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1918</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>15616</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" s="7">
+        <v>24</v>
+      </c>
+      <c r="I31" s="7">
+        <v>15454</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M31" s="7">
+        <v>48</v>
+      </c>
+      <c r="N31" s="7">
+        <v>31069</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>153</v>
+      </c>
+      <c r="D32" s="7">
+        <v>106278</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H32" s="7">
+        <v>167</v>
+      </c>
+      <c r="I32" s="7">
+        <v>111472</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M32" s="7">
+        <v>320</v>
+      </c>
+      <c r="N32" s="7">
+        <v>217750</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>179</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>123276</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>192</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>127461</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="7">
         <v>371</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>250737</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>45</v>
+      <c r="O33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5911,8 +7140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6054DAD8-B4BA-4AF8-B998-A956F068D382}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA567B8A-07B5-49D3-A87C-AF69E0C9364B}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5928,7 +7157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6041,7 +7270,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6056,7 +7285,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6071,7 +7300,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +7321,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6107,7 +7336,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6122,7 +7351,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,49 +7360,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>380</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <v>2120</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
+        <v>2571</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
-        <v>3062</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M6" s="7">
-        <v>9</v>
-      </c>
       <c r="N6" s="7">
-        <v>5183</v>
+        <v>2951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>51</v>
+        <v>408</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,49 +7411,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>12029</v>
+        <v>7203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>8116</v>
+        <v>5825</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>20145</v>
+        <v>13028</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,49 +7462,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>21720</v>
+        <v>13352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>15020</v>
+        <v>7546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>36740</v>
+        <v>20897</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,40 +7513,40 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="7">
         <v>72</v>
       </c>
-      <c r="D9" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7">
-        <v>51</v>
-      </c>
-      <c r="I9" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="7">
-        <v>123</v>
-      </c>
       <c r="N9" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -6349,7 +7578,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6358,13 +7587,13 @@
         <v>575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6373,13 +7602,13 @@
         <v>575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,43 +7623,43 @@
         <v>658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>2307</v>
+        <v>658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,49 +7668,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4805</v>
+        <v>4431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>704</v>
+        <v>1195</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5508</v>
+        <v>5626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,49 +7719,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14494</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
-        <v>15064</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
       <c r="I13" s="7">
-        <v>16375</v>
+        <v>11284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>31439</v>
+        <v>25778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,49 +7770,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>31460</v>
+        <v>26419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>35300</v>
+        <v>31690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M14" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N14" s="7">
-        <v>66760</v>
+        <v>58108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,10 +7821,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -6607,10 +7836,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -6622,10 +7851,10 @@
         <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -6639,7 +7868,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -6657,7 +7886,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6672,7 +7901,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6687,7 +7916,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,43 +7931,43 @@
         <v>824</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>783</v>
+        <v>1649</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1608</v>
+        <v>2474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,49 +7976,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1795</v>
+        <v>2114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>412</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>4723</v>
+        <v>2928</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>6518</v>
+        <v>5042</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,49 +8027,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>21599</v>
+        <v>8591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>15199</v>
+        <v>13782</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>36798</v>
+        <v>22373</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,49 +8078,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>60462</v>
+        <v>32053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>52905</v>
+        <v>18544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="N20" s="7">
-        <v>113366</v>
+        <v>50598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,10 +8129,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -6915,10 +8144,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I21" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -6930,10 +8159,10 @@
         <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N21" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -6947,7 +8176,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -6965,37 +8194,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,49 +8233,49 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1483</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>190</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>2433</v>
+        <v>783</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>3915</v>
+        <v>783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,49 +8284,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>8720</v>
+        <v>1795</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>445</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>8489</v>
+        <v>1795</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>16</v>
+        <v>499</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>17209</v>
+        <v>3590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,49 +8335,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>48693</v>
+        <v>18404</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>39690</v>
+        <v>8798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>455</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="N25" s="7">
-        <v>88382</v>
+        <v>27202</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,49 +8386,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D26" s="7">
-        <v>113642</v>
+        <v>41817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>103225</v>
+        <v>45445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="N26" s="7">
-        <v>216866</v>
+        <v>87263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,55 +8437,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
+        <v>71</v>
+      </c>
+      <c r="I27" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="7">
+        <v>148</v>
+      </c>
+      <c r="N27" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>575</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>575</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1483</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2433</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3915</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8720</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8489</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M30" s="7">
+        <v>26</v>
+      </c>
+      <c r="N30" s="7">
+        <v>17209</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7">
+        <v>48693</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H31" s="7">
+        <v>65</v>
+      </c>
+      <c r="I31" s="7">
+        <v>39690</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M31" s="7">
+        <v>140</v>
+      </c>
+      <c r="N31" s="7">
+        <v>88382</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>160</v>
+      </c>
+      <c r="D32" s="7">
+        <v>113642</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H32" s="7">
+        <v>144</v>
+      </c>
+      <c r="I32" s="7">
+        <v>103225</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M32" s="7">
+        <v>304</v>
+      </c>
+      <c r="N32" s="7">
+        <v>216866</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>250</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>172537</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>226</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>154412</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="7">
         <v>476</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>326948</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>45</v>
+      <c r="O33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7F6D7E-49C6-484A-A14C-FA1733DC6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD52FF21-E8AB-431E-AF07-FE952EF48245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC4985B-B178-4C39-A06C-BC4585DBED27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C64CAF76-178C-4B58-AAFB-BEF577B9DFA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="556">
   <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -89,184 +89,184 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>9,02%</t>
+    <t>10,78%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>16,35%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>8,24%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>46,33%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -284,1348 +284,1345 @@
     <t>5,6%</t>
   </si>
   <si>
-    <t>16,86%</t>
+    <t>19,25%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>16,62%</t>
+    <t>18,95%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -1634,67 +1631,64 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -1703,16 +1697,16 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CAD823-5F09-4048-88CF-EA83FCF73170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA57F805-4292-4B56-B678-D6A71B231091}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3346,7 +3340,7 @@
         <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3355,13 +3349,13 @@
         <v>30246</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3370,13 @@
         <v>21691</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -3391,13 +3385,13 @@
         <v>16772</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -3406,13 +3400,13 @@
         <v>38462</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,37 +3480,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3531,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3546,13 +3540,13 @@
         <v>517</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3561,13 +3555,13 @@
         <v>517</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3576,13 @@
         <v>4697</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -3597,13 +3591,13 @@
         <v>5813</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -3612,13 +3606,13 @@
         <v>10509</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3627,13 @@
         <v>52566</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -3648,13 +3642,13 @@
         <v>41607</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M31" s="7">
         <v>138</v>
@@ -3663,13 +3657,13 @@
         <v>94173</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3678,13 @@
         <v>86656</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H32" s="7">
         <v>118</v>
@@ -3699,13 +3693,13 @@
         <v>77368</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M32" s="7">
         <v>249</v>
@@ -3714,13 +3708,13 @@
         <v>164024</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3770,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF6BBD5-0635-484E-840B-453468F81341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB91349-5843-484F-ABEE-C8694A014AAC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3926,37 +3920,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,37 +3971,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +4022,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4037,13 +4031,13 @@
         <v>1305</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4052,13 +4046,13 @@
         <v>1305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4067,13 @@
         <v>6397</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4088,13 +4082,13 @@
         <v>5858</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4103,13 +4097,13 @@
         <v>12255</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4118,13 @@
         <v>32029</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4139,13 +4133,13 @@
         <v>29334</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -4154,13 +4148,13 @@
         <v>61362</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,37 +4228,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,37 +4279,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4345,13 +4339,13 @@
         <v>1771</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4360,13 +4354,13 @@
         <v>1771</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4375,13 @@
         <v>8597</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4396,13 +4390,13 @@
         <v>7522</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4411,13 +4405,13 @@
         <v>16119</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4426,13 @@
         <v>58768</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -4447,13 +4441,13 @@
         <v>44872</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4462,13 +4456,13 @@
         <v>103639</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,37 +4536,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,14 +4581,14 @@
         <v>1097</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
@@ -4608,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4617,13 +4611,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,37 +4638,37 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4683,7 @@
         <v>1340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
@@ -4710,7 +4704,7 @@
         <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4719,10 +4713,10 @@
         <v>4603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>226</v>
@@ -4865,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4916,7 +4910,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4946,13 +4940,13 @@
         <v>607</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4961,7 +4955,7 @@
         <v>637</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
@@ -5209,7 +5203,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5233,13 +5227,13 @@
         <v>1097</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5248,13 @@
         <v>607</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5269,13 +5263,13 @@
         <v>3714</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -5284,13 +5278,13 @@
         <v>4321</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5299,13 @@
         <v>20140</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -5320,13 +5314,13 @@
         <v>22757</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5335,13 +5329,13 @@
         <v>42896</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5350,13 @@
         <v>136730</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -5371,13 +5365,13 @@
         <v>121231</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M32" s="7">
         <v>369</v>
@@ -5386,13 +5380,13 @@
         <v>257959</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,7 +5442,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A243333C-F8D9-43E1-B1D7-2F868AC78A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF35E20A-AB5E-4E66-A49A-517C7D05280C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5485,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5598,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5628,7 +5622,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5679,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5694,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5709,13 +5703,13 @@
         <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5724,13 +5718,13 @@
         <v>536</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5739,13 @@
         <v>5941</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5760,13 +5754,13 @@
         <v>3839</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5775,13 +5769,13 @@
         <v>9780</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5790,13 @@
         <v>18035</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5811,13 +5805,13 @@
         <v>22658</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5826,13 +5820,13 @@
         <v>40693</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,37 +5900,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,37 +5951,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +6002,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6023,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6032,13 +6026,13 @@
         <v>1382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6047,7 @@
         <v>2586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>321</v>
@@ -6229,7 +6223,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6244,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,7 +6274,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6295,7 +6289,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6325,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6346,7 +6340,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6355,13 @@
         <v>3737</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6376,13 +6370,13 @@
         <v>4166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6391,13 +6385,13 @@
         <v>7903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6406,13 @@
         <v>29709</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -6427,13 +6421,13 @@
         <v>31958</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -6442,13 +6436,13 @@
         <v>61667</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,37 +6516,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,37 +6567,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,37 +6618,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6663,13 @@
         <v>3352</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6684,13 +6678,13 @@
         <v>1296</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6699,13 +6693,13 @@
         <v>4648</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6714,13 @@
         <v>19406</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -6735,13 +6729,13 @@
         <v>20769</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -6750,13 +6744,13 @@
         <v>40175</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,7 +6824,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6881,7 +6875,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6926,7 +6920,7 @@
         <v>1382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
@@ -6947,7 +6941,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6956,13 +6950,13 @@
         <v>1918</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,10 +6971,10 @@
         <v>15616</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>385</v>
@@ -7120,7 +7114,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7140,7 +7134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA567B8A-07B5-49D3-A87C-AF69E0C9364B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3B3C1-865C-4B58-860A-E08C4A87DC92}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7270,7 +7264,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7321,7 +7315,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7384,10 +7378,10 @@
         <v>405</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -7396,13 +7390,13 @@
         <v>2951</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7411,13 @@
         <v>7203</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -7432,13 +7426,13 @@
         <v>5825</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -7447,13 +7441,13 @@
         <v>13028</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7462,13 @@
         <v>13352</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -7483,13 +7477,13 @@
         <v>7546</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -7498,13 +7492,13 @@
         <v>20897</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7581,13 @@
         <v>575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7602,13 +7596,13 @@
         <v>575</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +7617,7 @@
         <v>658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
@@ -7707,10 +7701,10 @@
         <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7719,13 @@
         <v>14494</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -7740,13 +7734,13 @@
         <v>11284</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -7755,13 +7749,13 @@
         <v>25778</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7770,13 @@
         <v>26419</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -7791,13 +7785,13 @@
         <v>31690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -7806,13 +7800,13 @@
         <v>58108</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7880,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7901,7 +7895,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7916,7 +7910,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7925,13 @@
         <v>824</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7946,7 +7940,7 @@
         <v>1649</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
@@ -7964,7 +7958,7 @@
         <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>466</v>
@@ -8036,10 +8030,10 @@
         <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -8048,13 +8042,13 @@
         <v>13782</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -8063,13 +8057,13 @@
         <v>22373</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8078,13 @@
         <v>32053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -8099,7 +8093,7 @@
         <v>18544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>487</v>
@@ -8194,7 +8188,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8224,7 +8218,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,7 +8239,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8293,10 +8287,10 @@
         <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>21</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -8305,13 +8299,13 @@
         <v>1795</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8320,13 +8314,13 @@
         <v>3590</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,13 +8335,13 @@
         <v>18404</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -8356,13 +8350,13 @@
         <v>8798</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -8371,13 +8365,13 @@
         <v>27202</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,13 +8386,13 @@
         <v>41817</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -8407,13 +8401,13 @@
         <v>45445</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -8422,13 +8416,13 @@
         <v>87263</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,7 +8496,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8511,13 +8505,13 @@
         <v>575</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -8526,13 +8520,13 @@
         <v>575</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,7 +8547,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>106</v>
+        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8565,10 +8559,10 @@
         <v>526</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -8577,13 +8571,13 @@
         <v>3915</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8598,13 +8592,13 @@
         <v>8720</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -8613,13 +8607,13 @@
         <v>8489</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>536</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -8628,13 +8622,13 @@
         <v>17209</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,13 +8643,13 @@
         <v>48693</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -8664,13 +8658,13 @@
         <v>39690</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M31" s="7">
         <v>140</v>
@@ -8679,13 +8673,13 @@
         <v>88382</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8700,13 +8694,13 @@
         <v>113642</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H32" s="7">
         <v>144</v>
@@ -8715,13 +8709,13 @@
         <v>103225</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M32" s="7">
         <v>304</v>
@@ -8730,13 +8724,13 @@
         <v>216866</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8792,7 +8786,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD52FF21-E8AB-431E-AF07-FE952EF48245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E8BBA01-C89B-435D-9DB7-D2232D484861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C64CAF76-178C-4B58-AAFB-BEF577B9DFA8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1C9A44E7-D87A-4BCC-9DB7-E57F17D037B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,1636 +77,1636 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>7,4%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA57F805-4292-4B56-B678-D6A71B231091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6151470-C80B-4BD6-9518-E93A8251BBCD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,34 +2287,34 @@
         <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2338,31 +2338,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>1387</v>
+        <v>2310</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2310</v>
+        <v>1387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -2389,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>7147</v>
+        <v>4862</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -2404,10 +2404,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>4862</v>
+        <v>7147</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -2440,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>21121</v>
+        <v>21347</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -2455,10 +2455,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>21347</v>
+        <v>21121</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -2491,25 +2491,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
         <v>44</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>29655</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>29035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -2646,31 +2646,31 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>700</v>
+        <v>2323</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>2323</v>
+        <v>700</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>54</v>
@@ -2697,10 +2697,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>20268</v>
+        <v>15408</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>58</v>
@@ -2712,10 +2712,10 @@
         <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>15408</v>
+        <v>20268</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>61</v>
@@ -2748,10 +2748,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>29991</v>
+        <v>25490</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>67</v>
@@ -2763,10 +2763,10 @@
         <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>25490</v>
+        <v>29991</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
@@ -2799,25 +2799,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="7">
         <v>76</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>50960</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="7">
-        <v>66</v>
-      </c>
-      <c r="I15" s="7">
-        <v>43221</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1337</v>
+        <v>1181</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>80</v>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1181</v>
+        <v>1337</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>82</v>
@@ -3005,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>8677</v>
+        <v>7566</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>87</v>
@@ -3020,10 +3020,10 @@
         <v>89</v>
       </c>
       <c r="H19" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>7566</v>
+        <v>8677</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>90</v>
@@ -3056,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>13853</v>
+        <v>13760</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>96</v>
@@ -3071,10 +3071,10 @@
         <v>98</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>13760</v>
+        <v>13853</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>99</v>
@@ -3107,25 +3107,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
         <v>36</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>23866</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="7">
-        <v>33</v>
-      </c>
-      <c r="I21" s="7">
-        <v>22507</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -3262,34 +3262,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>1273</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3313,10 +3313,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>16474</v>
+        <v>13771</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>113</v>
@@ -3328,10 +3328,10 @@
         <v>115</v>
       </c>
       <c r="H25" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>13771</v>
+        <v>16474</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>116</v>
@@ -3340,7 +3340,7 @@
         <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3349,13 +3349,13 @@
         <v>30246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,34 +3364,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>16772</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="7">
         <v>33</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>21691</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="7">
-        <v>25</v>
-      </c>
-      <c r="I26" s="7">
-        <v>16772</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -3400,13 +3400,13 @@
         <v>38462</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,25 +3415,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>45</v>
+      </c>
+      <c r="D27" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
         <v>59</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>39438</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
-        <v>45</v>
-      </c>
-      <c r="I27" s="7">
-        <v>30543</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>45</v>
@@ -3480,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,34 +3519,34 @@
         <v>4</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3555,13 +3555,13 @@
         <v>517</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,34 +3570,34 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5813</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="7">
         <v>7</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>4697</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="7">
-        <v>10</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5813</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -3606,13 +3606,13 @@
         <v>10509</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,34 +3621,34 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7">
+        <v>41607</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="7">
         <v>77</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>52566</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="7">
-        <v>61</v>
-      </c>
-      <c r="I31" s="7">
-        <v>41607</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M31" s="7">
         <v>138</v>
@@ -3657,13 +3657,13 @@
         <v>94173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,34 +3672,34 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
+        <v>118</v>
+      </c>
+      <c r="D32" s="7">
+        <v>77368</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="7">
         <v>131</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>86656</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="7">
-        <v>118</v>
-      </c>
-      <c r="I32" s="7">
-        <v>77368</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M32" s="7">
         <v>249</v>
@@ -3708,13 +3708,13 @@
         <v>164024</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,25 +3723,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>190</v>
+      </c>
+      <c r="D33" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>215</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>143919</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="7">
-        <v>190</v>
-      </c>
-      <c r="I33" s="7">
-        <v>125305</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>45</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB91349-5843-484F-ABEE-C8694A014AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4407B-3375-41DC-97A3-E586051CED58}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3920,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,34 +4010,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4046,13 +4046,13 @@
         <v>1305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,34 +4061,34 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5858</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>6397</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5858</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4097,13 +4097,13 @@
         <v>12255</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,34 +4112,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
+        <v>29334</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="7">
         <v>46</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>32029</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="7">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7">
-        <v>29334</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -4148,13 +4148,13 @@
         <v>61362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,25 +4163,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
         <v>54</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>38426</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7">
-        <v>55</v>
-      </c>
-      <c r="I9" s="7">
-        <v>36497</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -4228,7 +4228,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,31 +4318,31 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1771</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1771</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>192</v>
@@ -4354,13 +4354,13 @@
         <v>1771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,34 +4369,34 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7522</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8597</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7522</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4405,13 +4405,13 @@
         <v>16119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,34 +4420,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44872</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="7">
         <v>82</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>58768</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="7">
-        <v>65</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44872</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4456,13 +4456,13 @@
         <v>103639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,25 +4471,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54165</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="7">
         <v>94</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>67365</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="7">
-        <v>77</v>
-      </c>
-      <c r="I15" s="7">
-        <v>54165</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -4536,7 +4536,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,34 +4575,34 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1097</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4611,13 +4611,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,34 +4677,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3263</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1340</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3263</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4713,13 +4713,13 @@
         <v>4603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,34 +4728,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7">
+        <v>26607</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="7">
         <v>36</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>25477</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="7">
-        <v>37</v>
-      </c>
-      <c r="I20" s="7">
-        <v>26607</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -4764,13 +4764,13 @@
         <v>52084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,25 +4779,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
         <v>39</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>27915</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="7">
-        <v>42</v>
-      </c>
-      <c r="I21" s="7">
-        <v>29870</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -4844,7 +4844,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,31 +4937,31 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -4970,13 +4970,13 @@
         <v>1244</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,34 +4985,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6114</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3805</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6114</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5021,13 +5021,13 @@
         <v>9919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,34 +5036,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>30</v>
+      </c>
+      <c r="D26" s="7">
+        <v>20418</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="7">
         <v>29</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>20456</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H26" s="7">
-        <v>30</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20418</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>59</v>
@@ -5072,13 +5072,13 @@
         <v>40874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,25 +5087,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
         <v>36</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>24868</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
-        <v>39</v>
-      </c>
-      <c r="I27" s="7">
-        <v>27169</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>45</v>
@@ -5152,7 +5152,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,34 +5191,34 @@
         <v>4</v>
       </c>
       <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>1097</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -5227,13 +5227,13 @@
         <v>1097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,34 +5242,34 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3714</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>607</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3714</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -5278,7 +5278,7 @@
         <v>4321</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>271</v>
@@ -5293,10 +5293,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7">
-        <v>20140</v>
+        <v>22757</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>273</v>
@@ -5308,10 +5308,10 @@
         <v>275</v>
       </c>
       <c r="H31" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I31" s="7">
-        <v>22757</v>
+        <v>20140</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>276</v>
@@ -5332,10 +5332,10 @@
         <v>279</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,34 +5344,34 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
+        <v>176</v>
+      </c>
+      <c r="D32" s="7">
+        <v>121231</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" s="7">
         <v>193</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>136730</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" s="7">
-        <v>176</v>
-      </c>
-      <c r="I32" s="7">
-        <v>121231</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" s="7">
         <v>369</v>
@@ -5380,13 +5380,13 @@
         <v>257959</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,25 +5395,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>213</v>
+      </c>
+      <c r="D33" s="7">
+        <v>147701</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>223</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>158574</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="7">
-        <v>213</v>
-      </c>
-      <c r="I33" s="7">
-        <v>147701</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>45</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF35E20A-AB5E-4E66-A49A-517C7D05280C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9B4B41-46F3-4343-A36D-4BC619C2ED07}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5479,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5592,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,34 +5682,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5718,13 +5718,13 @@
         <v>536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>5941</v>
+        <v>3839</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>297</v>
@@ -5748,19 +5748,19 @@
         <v>299</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>3839</v>
+        <v>5941</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5769,10 +5769,10 @@
         <v>9780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>304</v>
@@ -5784,10 +5784,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>18035</v>
+        <v>22658</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>305</v>
@@ -5799,10 +5799,10 @@
         <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>22658</v>
+        <v>18035</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>308</v>
@@ -5835,25 +5835,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
         <v>38</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>23976</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>27033</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -5990,34 +5990,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>1382</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6041,10 +6041,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>2586</v>
+        <v>6153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>320</v>
@@ -6056,10 +6056,10 @@
         <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>6153</v>
+        <v>2586</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>323</v>
@@ -6092,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>39128</v>
+        <v>36086</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>329</v>
@@ -6107,10 +6107,10 @@
         <v>331</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>36086</v>
+        <v>39128</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>332</v>
@@ -6143,25 +6143,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="7">
         <v>63</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>43096</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="7">
-        <v>65</v>
-      </c>
-      <c r="I15" s="7">
-        <v>42239</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -6223,7 +6223,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6274,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6325,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,34 +6349,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4166</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3737</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4166</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6385,13 +6385,13 @@
         <v>7903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,34 +6400,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>31958</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="7">
         <v>42</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>29709</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>31958</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -6436,13 +6436,13 @@
         <v>61667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,25 +6451,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
         <v>47</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>33446</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="7">
-        <v>52</v>
-      </c>
-      <c r="I21" s="7">
-        <v>36124</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -6516,7 +6516,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6618,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,34 +6657,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1296</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3352</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1296</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6693,13 +6693,13 @@
         <v>4648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,34 +6708,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7">
+        <v>20769</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="7">
         <v>26</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>19406</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H26" s="7">
-        <v>29</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20769</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -6744,13 +6744,13 @@
         <v>40175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6762,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>45</v>
@@ -6777,7 +6777,7 @@
         <v>31</v>
       </c>
       <c r="I27" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>45</v>
@@ -6824,7 +6824,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6854,7 +6854,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,7 +6875,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6905,7 +6905,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,34 +6914,34 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>536</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>1382</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>536</v>
-      </c>
       <c r="J30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6968,7 +6968,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="7">
-        <v>15616</v>
+        <v>15454</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>383</v>
@@ -6983,7 +6983,7 @@
         <v>24</v>
       </c>
       <c r="I31" s="7">
-        <v>15454</v>
+        <v>15616</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>386</v>
@@ -7016,10 +7016,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D32" s="7">
-        <v>106278</v>
+        <v>111472</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>392</v>
@@ -7031,10 +7031,10 @@
         <v>394</v>
       </c>
       <c r="H32" s="7">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I32" s="7">
-        <v>111472</v>
+        <v>106278</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>395</v>
@@ -7067,25 +7067,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>192</v>
+      </c>
+      <c r="D33" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>179</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>123276</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="7">
-        <v>192</v>
-      </c>
-      <c r="I33" s="7">
-        <v>127461</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>45</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7134,7 +7134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3B3C1-865C-4B58-860A-E08C4A87DC92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA740941-870E-462F-823C-1E8BEB70E1B7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7264,7 +7264,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7354,49 +7354,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2543</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
       <c r="I6" s="7">
-        <v>2571</v>
+        <v>390</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>2951</v>
+        <v>2934</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,49 +7405,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5753</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
-        <v>7203</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
       <c r="I7" s="7">
-        <v>5825</v>
+        <v>7413</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>13028</v>
+        <v>13165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,49 +7456,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7687</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H8" s="7">
         <v>24</v>
       </c>
-      <c r="D8" s="7">
-        <v>13352</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
       <c r="I8" s="7">
-        <v>7546</v>
+        <v>14554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>20897</v>
+        <v>22241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,25 +7507,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
         <v>42</v>
       </c>
-      <c r="D9" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7">
-        <v>30</v>
-      </c>
       <c r="I9" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -7540,7 +7540,7 @@
         <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -7560,49 +7560,49 @@
         <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,49 +7611,49 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>658</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,49 +7662,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1225</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
-        <v>4431</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
       <c r="I12" s="7">
-        <v>1195</v>
+        <v>4781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5626</v>
+        <v>6005</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,49 +7713,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11212</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="7">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
-        <v>14494</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
       <c r="I13" s="7">
-        <v>11284</v>
+        <v>15138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>25778</v>
+        <v>26350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,49 +7764,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7">
+        <v>33601</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H14" s="7">
         <v>43</v>
       </c>
-      <c r="D14" s="7">
-        <v>26419</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H14" s="7">
-        <v>49</v>
-      </c>
       <c r="I14" s="7">
-        <v>31690</v>
+        <v>28367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
       </c>
       <c r="N14" s="7">
-        <v>58108</v>
+        <v>61968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,25 +7815,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="7">
         <v>75</v>
       </c>
-      <c r="D15" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="7">
-        <v>72</v>
-      </c>
       <c r="I15" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -7848,7 +7848,7 @@
         <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -7880,7 +7880,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,49 +7919,49 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1657</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>824</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
       <c r="I17" s="7">
-        <v>1649</v>
+        <v>863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2474</v>
+        <v>2520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,49 +7970,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2785</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>2114</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
       <c r="I18" s="7">
-        <v>2928</v>
+        <v>2141</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>138</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>5042</v>
+        <v>4926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,40 +8021,40 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>8591</v>
+        <v>13750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>13782</v>
+        <v>8843</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>22373</v>
+        <v>22593</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>481</v>
@@ -8072,10 +8072,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>32053</v>
+        <v>18959</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>484</v>
@@ -8087,34 +8087,34 @@
         <v>486</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>18544</v>
+        <v>34323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
       </c>
       <c r="N20" s="7">
-        <v>50598</v>
+        <v>53282</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,25 +8123,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
         <v>56</v>
       </c>
-      <c r="D21" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="7">
-        <v>53</v>
-      </c>
       <c r="I21" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -8156,7 +8156,7 @@
         <v>109</v>
       </c>
       <c r="N21" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>45</v>
@@ -8188,7 +8188,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>189</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8203,7 +8203,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,49 +8227,49 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>783</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,46 +8281,46 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>1795</v>
+        <v>1752</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>1795</v>
+        <v>1823</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,49 +8329,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8633</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="7">
         <v>24</v>
       </c>
-      <c r="D25" s="7">
-        <v>18404</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>19115</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="H25" s="7">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8798</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
       </c>
       <c r="N25" s="7">
-        <v>27202</v>
+        <v>27748</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,49 +8380,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>55</v>
+      </c>
+      <c r="D26" s="7">
+        <v>66804</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H26" s="7">
         <v>50</v>
       </c>
-      <c r="D26" s="7">
-        <v>41817</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>43753</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H26" s="7">
-        <v>55</v>
-      </c>
-      <c r="I26" s="7">
-        <v>45445</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
       </c>
       <c r="N26" s="7">
-        <v>87263</v>
+        <v>110557</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,25 +8431,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>71</v>
+      </c>
+      <c r="D27" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
         <v>77</v>
       </c>
-      <c r="D27" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="7">
-        <v>71</v>
-      </c>
       <c r="I27" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>45</v>
@@ -8464,7 +8464,7 @@
         <v>148</v>
       </c>
       <c r="N27" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>45</v>
@@ -8484,49 +8484,49 @@
         <v>5</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>520</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>575</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,49 +8535,49 @@
         <v>4</v>
       </c>
       <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2425</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1483</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>1561</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2433</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>3915</v>
+        <v>3986</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,37 +8589,37 @@
         <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>8720</v>
+        <v>8305</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
       </c>
       <c r="I30" s="7">
-        <v>8489</v>
+        <v>9135</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
       </c>
       <c r="N30" s="7">
-        <v>17209</v>
+        <v>17441</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>535</v>
@@ -8637,10 +8637,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D31" s="7">
-        <v>48693</v>
+        <v>39347</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>538</v>
@@ -8652,10 +8652,10 @@
         <v>540</v>
       </c>
       <c r="H31" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I31" s="7">
-        <v>39690</v>
+        <v>50508</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>541</v>
@@ -8670,7 +8670,7 @@
         <v>140</v>
       </c>
       <c r="N31" s="7">
-        <v>88382</v>
+        <v>89856</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>544</v>
@@ -8688,10 +8688,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D32" s="7">
-        <v>113642</v>
+        <v>127052</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>547</v>
@@ -8703,10 +8703,10 @@
         <v>549</v>
       </c>
       <c r="H32" s="7">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="I32" s="7">
-        <v>103225</v>
+        <v>120997</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>550</v>
@@ -8721,7 +8721,7 @@
         <v>304</v>
       </c>
       <c r="N32" s="7">
-        <v>216866</v>
+        <v>248048</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>553</v>
@@ -8739,25 +8739,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>226</v>
+      </c>
+      <c r="D33" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="7">
         <v>250</v>
       </c>
-      <c r="D33" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="7">
-        <v>226</v>
-      </c>
       <c r="I33" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>45</v>
@@ -8772,7 +8772,7 @@
         <v>476</v>
       </c>
       <c r="N33" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>45</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
